--- a/medicine/Mort/La_mariée_était_en_noir_(film)/La_mariée_était_en_noir_(film).xlsx
+++ b/medicine/Mort/La_mariée_était_en_noir_(film)/La_mariée_était_en_noir_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_mari%C3%A9e_%C3%A9tait_en_noir_(film)</t>
+          <t>La_mariée_était_en_noir_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mariée était en noir est un film franco-italien réalisé par François Truffaut, sorti en 1968.
 Truffaut est en pleine écriture de son livre-entretien avec Alfred Hitchcock lorsqu'il adapte La mariée était en noir, traduction française de The Bride Wore Black de William Irish (1940).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_mari%C3%A9e_%C3%A9tait_en_noir_(film)</t>
+          <t>La_mariée_était_en_noir_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mari de Julie Kohler est abattu devant ses yeux le jour de son mariage. Elle décide de retrouver ceux qui l'ont tué et de se venger.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_mari%C3%A9e_%C3%A9tait_en_noir_(film)</t>
+          <t>La_mariée_était_en_noir_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La mariée était en noir
 Titre international : The Bride Wore Black
@@ -557,10 +573,10 @@
 Montage : Claudine Bouché
 Directeur de production : Georges Charlot
 Sociétés de production : Dino De Laurentiis Cinematografica, Les Films du Carrosse et Les Productions Artistes Associés
-Société de distribution : Les Artistes Associés S.A (France), ZON Lusomundo Audiovisuais (Portugal)[1] et Lopert Films (États-Unis)
+Société de distribution : Les Artistes Associés S.A (France), ZON Lusomundo Audiovisuais (Portugal) et Lopert Films (États-Unis)
 Pays d'origine :  France,  Italie
 Langue originale : français
-Générique : Jean Fouchet[2]
+Générique : Jean Fouchet
 Format : couleur (Eastmancolor) - 35mm - 1.66:1 - son monophonique
 Laboratoires : LTC (Saint-Cloud)
 Genre : Drame et thriller
@@ -568,7 +584,7 @@
 Date de sortie : 17 avril 1968
 Date de sortie DVD : 07 septembre 1999
 Visa d'exploitation n° 33 254
-Box-office France : 1 274 411 entrées[3]</t>
+Box-office France : 1 274 411 entrées</t>
         </is>
       </c>
     </row>
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_mari%C3%A9e_%C3%A9tait_en_noir_(film)</t>
+          <t>La_mariée_était_en_noir_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jeanne Moreau : Julie Kohler, la veuve
 Claude Rich : Bliss
@@ -635,7 +653,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_mari%C3%A9e_%C3%A9tait_en_noir_(film)</t>
+          <t>La_mariée_était_en_noir_(film)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -653,7 +671,9 @@
           <t>Dates et lieux de tournage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le film a été tourné entre le 16 mai et le 10 novembre 1967.
 Scène de la sortie du mariage et du tir sur le marié : église Saint-Lambert de Vaugirard dans le 15e arrondissement de Paris, le tireur se trouve à une fenêtre du dernier étage du no 15 de la rue Gerbert face à l'église.
@@ -668,7 +688,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La_mari%C3%A9e_%C3%A9tait_en_noir_(film)</t>
+          <t>La_mariée_était_en_noir_(film)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -686,9 +706,11 @@
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans Le Nouvel Observateur, le critique Jean-Louis Bory est élogieux : « Professeur Hitchcock, élève Truffaut, bravo. L'élève a regardé les leçons du maître, il les a assimilées. Le voici maître lui aussi. Et ce n'est que justice »[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans Le Nouvel Observateur, le critique Jean-Louis Bory est élogieux : « Professeur Hitchcock, élève Truffaut, bravo. L'élève a regardé les leçons du maître, il les a assimilées. Le voici maître lui aussi. Et ce n'est que justice ».
 </t>
         </is>
       </c>
@@ -699,7 +721,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>La_mari%C3%A9e_%C3%A9tait_en_noir_(film)</t>
+          <t>La_mariée_était_en_noir_(film)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -717,18 +739,20 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'influence de ce film sur le scénario des films Kill Bill de Quentin Tarantino est manifeste, quoique niée par le réalisateur[5][source insuffisante].
-Le film influencera Kate Bush dans l'écriture de sa chanson The Wedding List, tirée de l'album Never for Ever[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'influence de ce film sur le scénario des films Kill Bill de Quentin Tarantino est manifeste, quoique niée par le réalisateur[source insuffisante].
+Le film influencera Kate Bush dans l'écriture de sa chanson The Wedding List, tirée de l'album Never for Ever.
 Fergus, joué par Charles Denner, se définit lui-même dans ce film comme un « cavaleur ». Truffaut reprendra cette orientation du « cavaleur » pour élaborer le personnage central de L'Homme qui aimait les femmes en 1977, où le rôle sera également interprété par Charles Denner.
-Truffaut a modifié le roman de William Irish selon les principes hitchockiens : dans le livre, le mobile de Julie ne nous est dévoilé qu'à la fin, et l'énigme demeure un mystère ; dans le film, un flash-back après le deuxième meurtre nous révèle le mobile, et l'énigme devient suspense[7].
+Truffaut a modifié le roman de William Irish selon les principes hitchockiens : dans le livre, le mobile de Julie ne nous est dévoilé qu'à la fin, et l'énigme demeure un mystère ; dans le film, un flash-back après le deuxième meurtre nous révèle le mobile, et l'énigme devient suspense.
 Le dénouement du film présente également une grande différence avec celui du roman : dans l'œuvre de William Irish, l'héroïne découvre — comme plus tard le personnage de Jim Douglas dans le western américain Bravados — qu'elle a tué des innocents.
 Le film de François Truffaut, La Sirène du Mississippi (1969), sera aussi adapté d'un roman de William Irish. Fenêtre sur cour (1954), film d'Alfred Hitchcock, était également tiré d'une nouvelle de William Irish.
 Après Fahrenheit 451 (1966), La Mariée était en noir est la deuxième et dernière collaboration de François Truffaut avec le compositeur américain Bernard Herrmann, connu notamment pour les musiques qu'il écrivit pour les films d'Alfred Hitchcock.
 Le train entrant en gare au début du film est tracté par la BB 67007.
 Lors de la deuxième séance de pose, Charles Denner fait porter à Jeanne Moreau un bracelet réalisé selon lui par Alexander Calder.
-Les esquisses réalisées au fusain par le personnage de Charles Denner ont été produites par l'artiste Charles Matton[8].
+Les esquisses réalisées au fusain par le personnage de Charles Denner ont été produites par l'artiste Charles Matton.
 Lors de la réception au domicile de Charles Denner, Jean-Claude Brialy fait référence aux Mémoires de Saint-Simon.
 Le film a été nommé au Festival International du Film Policier de Beaune édition 2007.
 Le cinéaste, François Truffaut, et trois de ses interprètes du film, Jeanne Moreau, Jean-Claude Brialy et Michael Lonsdale, sont tous les quatre inhumés au cimetière de Montmartre.
